--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H2">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I2">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J2">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>0.1760991509226667</v>
+        <v>1.630625692802667</v>
       </c>
       <c r="R2">
-        <v>1.584892358304</v>
+        <v>14.675631235224</v>
       </c>
       <c r="S2">
-        <v>0.002370980907560634</v>
+        <v>0.02167252651813525</v>
       </c>
       <c r="T2">
-        <v>0.002370980907560634</v>
+        <v>0.02167252651813525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H3">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I3">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J3">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
-        <v>0.4304061015693333</v>
+        <v>2.525372870236</v>
       </c>
       <c r="R3">
-        <v>3.873654914124</v>
+        <v>22.728355832124</v>
       </c>
       <c r="S3">
-        <v>0.005794943609731739</v>
+        <v>0.03356454564646213</v>
       </c>
       <c r="T3">
-        <v>0.005794943609731739</v>
+        <v>0.03356454564646213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H4">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I4">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J4">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>0.17473830536</v>
+        <v>1.081494829810667</v>
       </c>
       <c r="R4">
-        <v>1.57264474824</v>
+        <v>9.733453468296</v>
       </c>
       <c r="S4">
-        <v>0.002352658622471149</v>
+        <v>0.01437406848288532</v>
       </c>
       <c r="T4">
-        <v>0.002352658622471149</v>
+        <v>0.01437406848288531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H5">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I5">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J5">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>0.331049022936</v>
+        <v>1.294266607802667</v>
       </c>
       <c r="R5">
-        <v>2.979441206424</v>
+        <v>11.648399470224</v>
       </c>
       <c r="S5">
-        <v>0.00445721009292401</v>
+        <v>0.01720200258278083</v>
       </c>
       <c r="T5">
-        <v>0.004457210092924011</v>
+        <v>0.01720200258278083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H6">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I6">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J6">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>0.02801452414133333</v>
+        <v>0.1800999868293334</v>
       </c>
       <c r="R6">
-        <v>0.252130717272</v>
+        <v>1.620899881464</v>
       </c>
       <c r="S6">
-        <v>0.0003771846799117546</v>
+        <v>0.002393695719197092</v>
       </c>
       <c r="T6">
-        <v>0.0003771846799117546</v>
+        <v>0.002393695719197092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H7">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I7">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J7">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>0.1666780047404444</v>
+        <v>1.143635742258667</v>
       </c>
       <c r="R7">
-        <v>1.500102042664</v>
+        <v>10.292721680328</v>
       </c>
       <c r="S7">
-        <v>0.002244135561581674</v>
+        <v>0.01519997879377686</v>
       </c>
       <c r="T7">
-        <v>0.002244135561581674</v>
+        <v>0.01519997879377686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H8">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I8">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J8">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N8">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O8">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P8">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q8">
-        <v>1.033247476256</v>
+        <v>1.704583478336445</v>
       </c>
       <c r="R8">
-        <v>9.299227286304001</v>
+        <v>15.341251305028</v>
       </c>
       <c r="S8">
-        <v>0.01391153805201486</v>
+        <v>0.0226554940227429</v>
       </c>
       <c r="T8">
-        <v>0.01391153805201487</v>
+        <v>0.0226554940227429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H9">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I9">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J9">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q9">
-        <v>2.525372870236</v>
+        <v>2.639912329508667</v>
       </c>
       <c r="R9">
-        <v>22.728355832124</v>
+        <v>23.759210965578</v>
       </c>
       <c r="S9">
-        <v>0.03400136132644156</v>
+        <v>0.03508688120110014</v>
       </c>
       <c r="T9">
-        <v>0.03400136132644156</v>
+        <v>0.03508688120110014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H10">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I10">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J10">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N10">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q10">
-        <v>1.02526282536</v>
+        <v>1.130546530045778</v>
       </c>
       <c r="R10">
-        <v>9.227365428240001</v>
+        <v>10.174918770412</v>
       </c>
       <c r="S10">
-        <v>0.01380403353124482</v>
+        <v>0.01502601103401604</v>
       </c>
       <c r="T10">
-        <v>0.01380403353124482</v>
+        <v>0.01502601103401603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H11">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I11">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J11">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N11">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O11">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P11">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q11">
-        <v>1.942403274936</v>
+        <v>1.352968670836444</v>
       </c>
       <c r="R11">
-        <v>17.481629474424</v>
+        <v>12.176718037528</v>
       </c>
       <c r="S11">
-        <v>0.02615231848380092</v>
+        <v>0.01798220739826006</v>
       </c>
       <c r="T11">
-        <v>0.02615231848380094</v>
+        <v>0.01798220739826006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H12">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I12">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J12">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N12">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O12">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P12">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q12">
-        <v>0.164372946808</v>
+        <v>0.1882685053675556</v>
       </c>
       <c r="R12">
-        <v>1.479356521272</v>
+        <v>1.694416548308</v>
       </c>
       <c r="S12">
-        <v>0.002213100497982492</v>
+        <v>0.002502262900135609</v>
       </c>
       <c r="T12">
-        <v>0.002213100497982492</v>
+        <v>0.002502262900135608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H13">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I13">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J13">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N13">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O13">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P13">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q13">
-        <v>0.9779696656293333</v>
+        <v>1.195505872435111</v>
       </c>
       <c r="R13">
-        <v>8.801726990663999</v>
+        <v>10.759552851916</v>
       </c>
       <c r="S13">
-        <v>0.01316728327894594</v>
+        <v>0.01588938089059772</v>
       </c>
       <c r="T13">
-        <v>0.01316728327894594</v>
+        <v>0.01588938089059772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H14">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I14">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J14">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N14">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O14">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P14">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q14">
-        <v>1.118356208090667</v>
+        <v>3.086980535718</v>
       </c>
       <c r="R14">
-        <v>10.065205872816</v>
+        <v>27.782824821462</v>
       </c>
       <c r="S14">
-        <v>0.01505743328881421</v>
+        <v>0.04102883194875065</v>
       </c>
       <c r="T14">
-        <v>0.01505743328881421</v>
+        <v>0.04102883194875065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H15">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I15">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J15">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q15">
-        <v>2.733388168927334</v>
+        <v>4.780850032143</v>
       </c>
       <c r="R15">
-        <v>24.600493520346</v>
+        <v>43.027650289287</v>
       </c>
       <c r="S15">
-        <v>0.03680205797428776</v>
+        <v>0.0635419272235065</v>
       </c>
       <c r="T15">
-        <v>0.03680205797428776</v>
+        <v>0.0635419272235065</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H16">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I16">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J16">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N16">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q16">
-        <v>1.10971386044</v>
+        <v>2.047406405922</v>
       </c>
       <c r="R16">
-        <v>9.987424743960002</v>
+        <v>18.426657653298</v>
       </c>
       <c r="S16">
-        <v>0.01494107360639171</v>
+        <v>0.02721192841594356</v>
       </c>
       <c r="T16">
-        <v>0.01494107360639172</v>
+        <v>0.02721192841594355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H17">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I17">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J17">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N17">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O17">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P17">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q17">
-        <v>2.102399290644</v>
+        <v>2.450210274468</v>
       </c>
       <c r="R17">
-        <v>18.921593615796</v>
+        <v>22.051892470212</v>
       </c>
       <c r="S17">
-        <v>0.02830648843034444</v>
+        <v>0.03256556509737361</v>
       </c>
       <c r="T17">
-        <v>0.02830648843034445</v>
+        <v>0.03256556509737361</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H18">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I18">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J18">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N18">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O18">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P18">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q18">
-        <v>0.1779123682653334</v>
+        <v>0.340952038398</v>
       </c>
       <c r="R18">
-        <v>1.601211314388</v>
+        <v>3.068568345582</v>
       </c>
       <c r="S18">
-        <v>0.002395393879901474</v>
+        <v>0.004531568542190972</v>
       </c>
       <c r="T18">
-        <v>0.002395393879901474</v>
+        <v>0.004531568542190971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H19">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I19">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J19">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N19">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O19">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P19">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q19">
-        <v>1.058525156861778</v>
+        <v>2.165047007346</v>
       </c>
       <c r="R19">
-        <v>9.526726411756</v>
+        <v>19.485423066114</v>
       </c>
       <c r="S19">
-        <v>0.01425187415125042</v>
+        <v>0.02877548102352506</v>
       </c>
       <c r="T19">
-        <v>0.01425187415125042</v>
+        <v>0.02877548102352506</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H20">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I20">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J20">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N20">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O20">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P20">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q20">
-        <v>2.658068959581333</v>
+        <v>6.537812774261778</v>
       </c>
       <c r="R20">
-        <v>23.922620636232</v>
+        <v>58.840314968356</v>
       </c>
       <c r="S20">
-        <v>0.03578796786427722</v>
+        <v>0.08689359020049414</v>
       </c>
       <c r="T20">
-        <v>0.03578796786427723</v>
+        <v>0.08689359020049413</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H21">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I21">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J21">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.444981</v>
       </c>
       <c r="O21">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P21">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q21">
-        <v>6.496619050129667</v>
+        <v>10.12520229730067</v>
       </c>
       <c r="R21">
-        <v>58.469571451167</v>
+        <v>91.126820675706</v>
       </c>
       <c r="S21">
-        <v>0.08746981260753763</v>
+        <v>0.1345733213074599</v>
       </c>
       <c r="T21">
-        <v>0.08746981260753763</v>
+        <v>0.1345733213074599</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H22">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I22">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J22">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N22">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O22">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P22">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q22">
-        <v>2.63752813738</v>
+        <v>4.336133512947112</v>
       </c>
       <c r="R22">
-        <v>23.73775323642</v>
+        <v>39.025201616524</v>
       </c>
       <c r="S22">
-        <v>0.03551140834079408</v>
+        <v>0.05763123257551529</v>
       </c>
       <c r="T22">
-        <v>0.03551140834079408</v>
+        <v>0.05763123257551528</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H23">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I23">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J23">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N23">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O23">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P23">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q23">
-        <v>4.996907295438</v>
+        <v>5.189218346761778</v>
       </c>
       <c r="R23">
-        <v>44.972165658942</v>
+        <v>46.702965120856</v>
       </c>
       <c r="S23">
-        <v>0.06727784735053471</v>
+        <v>0.06896952054967931</v>
       </c>
       <c r="T23">
-        <v>0.06727784735053473</v>
+        <v>0.06896952054967931</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H24">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I24">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J24">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N24">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O24">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P24">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q24">
-        <v>0.4228557414806667</v>
+        <v>0.7220909125462223</v>
       </c>
       <c r="R24">
-        <v>3.805701673326</v>
+        <v>6.498818212916</v>
       </c>
       <c r="S24">
-        <v>0.005693286335851424</v>
+        <v>0.009597257371656258</v>
       </c>
       <c r="T24">
-        <v>0.005693286335851424</v>
+        <v>0.009597257371656256</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H25">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I25">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J25">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N25">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O25">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P25">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q25">
-        <v>2.515864661040222</v>
+        <v>4.585280605992444</v>
       </c>
       <c r="R25">
-        <v>22.642781949362</v>
+        <v>41.267525453932</v>
       </c>
       <c r="S25">
-        <v>0.03387334377297713</v>
+        <v>0.06094262832058082</v>
       </c>
       <c r="T25">
-        <v>0.03387334377297714</v>
+        <v>0.06094262832058082</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,25 +2022,25 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H26">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I26">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J26">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N26">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O26">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P26">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q26">
-        <v>5.021503044914667</v>
+        <v>2.65799764616</v>
       </c>
       <c r="R26">
-        <v>45.193527404232</v>
+        <v>23.92197881544</v>
       </c>
       <c r="S26">
-        <v>0.06760900199898573</v>
+        <v>0.0353272518186152</v>
       </c>
       <c r="T26">
-        <v>0.06760900199898576</v>
+        <v>0.03532725181861519</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,25 +2084,25 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H27">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I27">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J27">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.444981</v>
       </c>
       <c r="O27">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P27">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q27">
-        <v>12.27311737879633</v>
+        <v>4.11647821716</v>
       </c>
       <c r="R27">
-        <v>110.458056409167</v>
+        <v>37.04830395443999</v>
       </c>
       <c r="S27">
-        <v>0.1652439936757877</v>
+        <v>0.05471181014533583</v>
       </c>
       <c r="T27">
-        <v>0.1652439936757877</v>
+        <v>0.05471181014533583</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,25 +2146,25 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H28">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I28">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J28">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N28">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O28">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P28">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q28">
-        <v>4.98269825738</v>
+        <v>1.76288815064</v>
       </c>
       <c r="R28">
-        <v>44.84428431642</v>
+        <v>15.86599335576</v>
       </c>
       <c r="S28">
-        <v>0.06708653831937922</v>
+        <v>0.02343041714716525</v>
       </c>
       <c r="T28">
-        <v>0.06708653831937923</v>
+        <v>0.02343041714716524</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,25 +2208,25 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H29">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I29">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J29">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N29">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O29">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P29">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q29">
-        <v>9.439930107438</v>
+        <v>2.10971629616</v>
       </c>
       <c r="R29">
-        <v>84.959370966942</v>
+        <v>18.98744666544</v>
       </c>
       <c r="S29">
-        <v>0.1270982508216137</v>
+        <v>0.02804008459825177</v>
       </c>
       <c r="T29">
-        <v>0.1270982508216138</v>
+        <v>0.02804008459825177</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H30">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I30">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J30">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N30">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O30">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P30">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q30">
-        <v>0.7988398441473333</v>
+        <v>0.29357156776</v>
       </c>
       <c r="R30">
-        <v>7.189558597326</v>
+        <v>2.64214410984</v>
       </c>
       <c r="S30">
-        <v>0.01075549773379542</v>
+        <v>0.003901838181093288</v>
       </c>
       <c r="T30">
-        <v>0.01075549773379543</v>
+        <v>0.003901838181093287</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H31">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I31">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J31">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N31">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O31">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P31">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q31">
-        <v>4.752857148595777</v>
+        <v>1.86418080152</v>
       </c>
       <c r="R31">
-        <v>42.775714337362</v>
+        <v>16.77762721368</v>
       </c>
       <c r="S31">
-        <v>0.06399198120286437</v>
+        <v>0.02477669034277266</v>
       </c>
       <c r="T31">
-        <v>0.0639919812028644</v>
+        <v>0.02477669034277266</v>
       </c>
     </row>
   </sheetData>
